--- a/Export-Ar.xlsx
+++ b/Export-Ar.xlsx
@@ -16,7 +16,7 @@
     <sheet name="اكبر" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">اقل!$A$1:$AC$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">اقل!$A$1:$AD$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">اكبر!$A$1:$AC$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>العدد</t>
   </si>
@@ -216,6 +216,12 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>طبيعة تاريخ الميلاد</t>
+  </si>
+  <si>
+    <t>طبيعة تاريخ ميلاد الزوج</t>
   </si>
 </sst>
 </file>
@@ -541,24 +547,72 @@
     <cellStyle name="Style 2 2" xfId="11"/>
     <cellStyle name="Style 6" xfId="4"/>
   </cellStyles>
-  <dxfs count="62">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Mohammad Bold Normal"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+  <dxfs count="63">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Mohammad Bold Normal"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="double">
+          <color indexed="64"/>
+        </left>
+        <right style="double">
+          <color indexed="64"/>
+        </right>
+        <top style="double">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Mohammad Bold Normal"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="double">
+          <color indexed="64"/>
+        </left>
+        <right style="double">
+          <color indexed="64"/>
+        </right>
+        <top style="double">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2452,39 +2506,6 @@
       <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="double">
-          <color indexed="64"/>
-        </left>
-        <right style="double">
-          <color indexed="64"/>
-        </right>
-        <top style="double">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="1"/>
-        <name val="Mohammad Bold Normal"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
-      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="double">
           <color indexed="64"/>
@@ -2509,6 +2530,24 @@
           <color indexed="64"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="1"/>
+        <name val="Mohammad Bold Normal"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="2"/>
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -2526,9 +2565,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AC2" totalsRowShown="0" dataDxfId="31" tableBorderDxfId="61">
-  <autoFilter ref="A1:AC2"/>
-  <tableColumns count="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AD2" totalsRowShown="0" dataDxfId="62" tableBorderDxfId="61">
+  <autoFilter ref="A1:AD2"/>
+  <tableColumns count="30">
     <tableColumn id="1" name="العدد" dataDxfId="60"/>
     <tableColumn id="2" name="رقـــم _x000a_الملــــــف" dataDxfId="59"/>
     <tableColumn id="3" name="تاريــــخ _x000a_الايـــداع" dataDxfId="58"/>
@@ -2536,6 +2575,7 @@
     <tableColumn id="5" name="الاســــم" dataDxfId="56"/>
     <tableColumn id="6" name="الجنس" dataDxfId="55"/>
     <tableColumn id="7" name="تاريخ الميلاد" dataDxfId="54"/>
+    <tableColumn id="30" name="طبيعة تاريخ الميلاد" dataDxfId="1"/>
     <tableColumn id="8" name="رقـم عقد الميـــــلاد" dataDxfId="53"/>
     <tableColumn id="9" name="بلــدية الميــــلاد" dataDxfId="52"/>
     <tableColumn id="10" name="الحالة العائلية" dataDxfId="51"/>
@@ -2546,56 +2586,56 @@
     <tableColumn id="15" name="اســــم _x000a_الـــزوج(ة)" dataDxfId="46"/>
     <tableColumn id="16" name="لقـــب الــزوج(ة)" dataDxfId="45"/>
     <tableColumn id="17" name="تاريـخ ميـــلاد_x000a_ الـــــــــزوج (ة)" dataDxfId="44"/>
+    <tableColumn id="32" name="طبيعة تاريخ ميلاد الزوج" dataDxfId="0"/>
     <tableColumn id="18" name="رقم عقد ميلاد الـــزوج(ة)" dataDxfId="43"/>
     <tableColumn id="19" name="بلـــدية ميــــــلاد الـــــــــــــزوج(ة)" dataDxfId="42"/>
     <tableColumn id="20" name="اســـــــم أب الـــــزوج(ة)" dataDxfId="41"/>
     <tableColumn id="21" name="اســم أم الـــــزوج (ة)" dataDxfId="40"/>
     <tableColumn id="22" name="لقـــب أم الــزوج(ة)" dataDxfId="39"/>
-    <tableColumn id="23" name="الفئـة_x000a_ ( أكـبـر/ أقــل)" dataDxfId="38"/>
-    <tableColumn id="24" name="مستوى_x000a_المداخيل" dataDxfId="37"/>
-    <tableColumn id="25" name="ظروف_x000a_السكن" dataDxfId="36"/>
-    <tableColumn id="26" name="الحالة_x000a_العائلية" dataDxfId="35"/>
-    <tableColumn id="27" name="أقدمية_x000a_طلب السكن" dataDxfId="34"/>
-    <tableColumn id="28" name="المجموع" dataDxfId="33"/>
-    <tableColumn id="29" name="الملاحظـــــــــــــــــــــــــــة" dataDxfId="32"/>
+    <tableColumn id="24" name="مستوى_x000a_المداخيل" dataDxfId="38"/>
+    <tableColumn id="25" name="ظروف_x000a_السكن" dataDxfId="37"/>
+    <tableColumn id="26" name="الحالة_x000a_العائلية" dataDxfId="36"/>
+    <tableColumn id="27" name="أقدمية_x000a_طلب السكن" dataDxfId="35"/>
+    <tableColumn id="28" name="المجموع" dataDxfId="34"/>
+    <tableColumn id="29" name="الملاحظـــــــــــــــــــــــــــة" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:AC2" totalsRowShown="0" dataDxfId="0" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:AC2" totalsRowShown="0" dataDxfId="32" tableBorderDxfId="31">
   <autoFilter ref="A1:AC2"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="العدد" dataDxfId="29"/>
-    <tableColumn id="2" name="رقـــم _x000a_الملــــــف" dataDxfId="28"/>
-    <tableColumn id="3" name="تاريــــخ _x000a_الايـــداع" dataDxfId="27"/>
-    <tableColumn id="4" name="اللقــــب" dataDxfId="26"/>
-    <tableColumn id="5" name="الاســــم" dataDxfId="25"/>
-    <tableColumn id="6" name="الجنس" dataDxfId="24"/>
-    <tableColumn id="7" name="تاريخ الميلاد" dataDxfId="23"/>
-    <tableColumn id="8" name="رقـم عقد الميـــــلاد" dataDxfId="22"/>
-    <tableColumn id="9" name="بلــدية الميــــلاد" dataDxfId="21"/>
-    <tableColumn id="10" name="الحالة العائلية" dataDxfId="20"/>
-    <tableColumn id="11" name="اســــــــم الاب" dataDxfId="19"/>
-    <tableColumn id="12" name="لقــــــب الام" dataDxfId="18"/>
-    <tableColumn id="13" name="اســــم الام" dataDxfId="17"/>
-    <tableColumn id="14" name="العنـــــــــــــــــــــــــــــــــــــــــوان" dataDxfId="16"/>
-    <tableColumn id="15" name="اســــم _x000a_الـــزوج(ة)" dataDxfId="15"/>
-    <tableColumn id="16" name="لقـــب الــزوج(ة)" dataDxfId="14"/>
-    <tableColumn id="17" name="تاريـخ ميـــلاد_x000a_ الـــــــــزوج (ة)" dataDxfId="13"/>
-    <tableColumn id="18" name="رقم عقد ميلاد الـــزوج(ة)" dataDxfId="12"/>
-    <tableColumn id="19" name="بلـــدية ميــــــلاد الـــــــــــــزوج(ة)" dataDxfId="11"/>
-    <tableColumn id="20" name="اســـــــم أب الـــــزوج(ة)" dataDxfId="10"/>
-    <tableColumn id="21" name="اســم أم الـــــزوج (ة)" dataDxfId="9"/>
-    <tableColumn id="22" name="لقـــب أم الــزوج(ة)" dataDxfId="8"/>
-    <tableColumn id="23" name="الفئـة_x000a_ ( أكـبـر/ أقــل)" dataDxfId="7"/>
-    <tableColumn id="24" name="مستوى_x000a_المداخيل" dataDxfId="6"/>
-    <tableColumn id="25" name="ظروف_x000a_السكن" dataDxfId="5"/>
-    <tableColumn id="26" name="الحالة_x000a_العائلية" dataDxfId="4"/>
-    <tableColumn id="27" name="أقدمية_x000a_طلب السكن" dataDxfId="3"/>
-    <tableColumn id="28" name="المجموع" dataDxfId="2"/>
-    <tableColumn id="29" name="الملاحظـــــــــــــــــــــــــــة" dataDxfId="1"/>
+    <tableColumn id="1" name="العدد" dataDxfId="30"/>
+    <tableColumn id="2" name="رقـــم _x000a_الملــــــف" dataDxfId="29"/>
+    <tableColumn id="3" name="تاريــــخ _x000a_الايـــداع" dataDxfId="28"/>
+    <tableColumn id="4" name="اللقــــب" dataDxfId="27"/>
+    <tableColumn id="5" name="الاســــم" dataDxfId="26"/>
+    <tableColumn id="6" name="الجنس" dataDxfId="25"/>
+    <tableColumn id="7" name="تاريخ الميلاد" dataDxfId="24"/>
+    <tableColumn id="8" name="رقـم عقد الميـــــلاد" dataDxfId="23"/>
+    <tableColumn id="9" name="بلــدية الميــــلاد" dataDxfId="22"/>
+    <tableColumn id="10" name="الحالة العائلية" dataDxfId="21"/>
+    <tableColumn id="11" name="اســــــــم الاب" dataDxfId="20"/>
+    <tableColumn id="12" name="لقــــــب الام" dataDxfId="19"/>
+    <tableColumn id="13" name="اســــم الام" dataDxfId="18"/>
+    <tableColumn id="14" name="العنـــــــــــــــــــــــــــــــــــــــــوان" dataDxfId="17"/>
+    <tableColumn id="15" name="اســــم _x000a_الـــزوج(ة)" dataDxfId="16"/>
+    <tableColumn id="16" name="لقـــب الــزوج(ة)" dataDxfId="15"/>
+    <tableColumn id="17" name="تاريـخ ميـــلاد_x000a_ الـــــــــزوج (ة)" dataDxfId="14"/>
+    <tableColumn id="18" name="رقم عقد ميلاد الـــزوج(ة)" dataDxfId="13"/>
+    <tableColumn id="19" name="بلـــدية ميــــــلاد الـــــــــــــزوج(ة)" dataDxfId="12"/>
+    <tableColumn id="20" name="اســـــــم أب الـــــزوج(ة)" dataDxfId="11"/>
+    <tableColumn id="21" name="اســم أم الـــــزوج (ة)" dataDxfId="10"/>
+    <tableColumn id="22" name="لقـــب أم الــزوج(ة)" dataDxfId="9"/>
+    <tableColumn id="23" name="الفئـة_x000a_ ( أكـبـر/ أقــل)" dataDxfId="8"/>
+    <tableColumn id="24" name="مستوى_x000a_المداخيل" dataDxfId="7"/>
+    <tableColumn id="25" name="ظروف_x000a_السكن" dataDxfId="6"/>
+    <tableColumn id="26" name="الحالة_x000a_العائلية" dataDxfId="5"/>
+    <tableColumn id="27" name="أقدمية_x000a_طلب السكن" dataDxfId="4"/>
+    <tableColumn id="28" name="المجموع" dataDxfId="3"/>
+    <tableColumn id="29" name="الملاحظـــــــــــــــــــــــــــة" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2865,10 +2905,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2878,32 +2918,32 @@
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
     <col min="4" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
-    <col min="14" max="14" width="51.85546875" customWidth="1"/>
-    <col min="15" max="15" width="24.85546875" customWidth="1"/>
-    <col min="16" max="16" width="23.85546875" customWidth="1"/>
-    <col min="17" max="17" width="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="35" customWidth="1"/>
-    <col min="19" max="19" width="44.140625" customWidth="1"/>
-    <col min="20" max="20" width="34.7109375" customWidth="1"/>
-    <col min="21" max="21" width="29.7109375" customWidth="1"/>
-    <col min="22" max="22" width="27.28515625" customWidth="1"/>
-    <col min="23" max="23" width="31.42578125" customWidth="1"/>
-    <col min="24" max="24" width="17" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.42578125" customWidth="1"/>
-    <col min="27" max="27" width="34.7109375" customWidth="1"/>
-    <col min="28" max="28" width="23.140625" customWidth="1"/>
-    <col min="29" max="29" width="47.5703125" customWidth="1"/>
+    <col min="7" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="51.85546875" customWidth="1"/>
+    <col min="16" max="16" width="24.85546875" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" customWidth="1"/>
+    <col min="18" max="18" width="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26" customWidth="1"/>
+    <col min="20" max="20" width="35" customWidth="1"/>
+    <col min="21" max="21" width="44.140625" customWidth="1"/>
+    <col min="22" max="22" width="34.7109375" customWidth="1"/>
+    <col min="23" max="23" width="29.7109375" customWidth="1"/>
+    <col min="24" max="24" width="27.28515625" customWidth="1"/>
+    <col min="25" max="25" width="17" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.42578125" customWidth="1"/>
+    <col min="28" max="28" width="34.7109375" customWidth="1"/>
+    <col min="29" max="29" width="23.140625" customWidth="1"/>
+    <col min="30" max="30" width="47.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="53.25" thickBot="1">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="53.25" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2925,74 +2965,77 @@
       <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AD1" s="16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="3" customFormat="1" ht="27" thickTop="1">
+    <row r="2" spans="1:30" s="3" customFormat="1" ht="27" thickTop="1">
       <c r="A2" s="4"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3021,7 +3064,8 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-      <c r="AC2" s="5"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
